--- a/tables/summary_statistics.xlsx
+++ b/tables/summary_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,20 +461,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Bills (SBM)</t>
+          <t>IGs</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>IGs</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>IGs (SBM)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Years</t>
         </is>
@@ -501,15 +491,9 @@
         <v>241</v>
       </c>
       <c r="F2" t="n">
-        <v>175</v>
-      </c>
-      <c r="G2" t="n">
         <v>418</v>
       </c>
-      <c r="H2" t="n">
-        <v>124</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2010-2022</t>
         </is>
@@ -536,15 +520,9 @@
         <v>334</v>
       </c>
       <c r="F3" t="n">
-        <v>316</v>
-      </c>
-      <c r="G3" t="n">
         <v>942</v>
       </c>
-      <c r="H3" t="n">
-        <v>212</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2010-2022</t>
         </is>
@@ -571,15 +549,9 @@
         <v>504</v>
       </c>
       <c r="F4" t="n">
-        <v>394</v>
-      </c>
-      <c r="G4" t="n">
         <v>596</v>
       </c>
-      <c r="H4" t="n">
-        <v>154</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2009-2022</t>
         </is>
@@ -606,15 +578,9 @@
         <v>878</v>
       </c>
       <c r="F5" t="n">
-        <v>515</v>
-      </c>
-      <c r="G5" t="n">
         <v>3300</v>
       </c>
-      <c r="H5" t="n">
-        <v>362</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2013-2022</t>
         </is>
@@ -641,15 +607,9 @@
         <v>1122</v>
       </c>
       <c r="F6" t="n">
-        <v>505</v>
-      </c>
-      <c r="G6" t="n">
         <v>541</v>
       </c>
-      <c r="H6" t="n">
-        <v>121</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>2010-2021</t>
         </is>
@@ -676,15 +636,9 @@
         <v>316</v>
       </c>
       <c r="F7" t="n">
-        <v>242</v>
-      </c>
-      <c r="G7" t="n">
         <v>817</v>
       </c>
-      <c r="H7" t="n">
-        <v>159</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>2020-2022</t>
         </is>
@@ -711,15 +665,9 @@
         <v>213</v>
       </c>
       <c r="F8" t="n">
-        <v>115</v>
-      </c>
-      <c r="G8" t="n">
         <v>610</v>
       </c>
-      <c r="H8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>2011-2022</t>
         </is>
@@ -746,15 +694,9 @@
         <v>391</v>
       </c>
       <c r="F9" t="n">
-        <v>276</v>
-      </c>
-      <c r="G9" t="n">
         <v>318</v>
       </c>
-      <c r="H9" t="n">
-        <v>107</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>2010-2022</t>
         </is>
@@ -781,15 +723,9 @@
         <v>229</v>
       </c>
       <c r="F10" t="n">
-        <v>184</v>
-      </c>
-      <c r="G10" t="n">
         <v>379</v>
       </c>
-      <c r="H10" t="n">
-        <v>105</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>2010-2021</t>
         </is>
@@ -816,15 +752,9 @@
         <v>625</v>
       </c>
       <c r="F11" t="n">
-        <v>198</v>
-      </c>
-      <c r="G11" t="n">
         <v>372</v>
       </c>
-      <c r="H11" t="n">
-        <v>74</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>2014-2022</t>
         </is>
@@ -851,15 +781,9 @@
         <v>397</v>
       </c>
       <c r="F12" t="n">
-        <v>333</v>
-      </c>
-      <c r="G12" t="n">
         <v>1363</v>
       </c>
-      <c r="H12" t="n">
-        <v>177</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>2009-2021</t>
         </is>
@@ -886,15 +810,9 @@
         <v>199</v>
       </c>
       <c r="F13" t="n">
-        <v>132</v>
-      </c>
-      <c r="G13" t="n">
         <v>300</v>
       </c>
-      <c r="H13" t="n">
-        <v>79</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>2009-2022</t>
         </is>
